--- a/programa/excel/Faturamento.xlsx
+++ b/programa/excel/Faturamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>DIA</t>
   </si>
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,6 +402,22 @@
         <v>85</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1546.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/programa/excel/Faturamento.xlsx
+++ b/programa/excel/Faturamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>DIA</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>05/05/2020</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +421,14 @@
         <v>143</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
